--- a/Tkinter lessons/Projects/Shop_assist_amazon/items_list.csv.xlsx
+++ b/Tkinter lessons/Projects/Shop_assist_amazon/items_list.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\messi\Desktop\Practice_Projects\Tkinter lessons\Projects\Shop_assist_amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53169430-45B2-4F97-AFB6-9CF9C130FAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B879C84-11A2-4106-9C7E-A3E71CBB7AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0A6F26B8-07A7-42E9-A3B6-24CCCD443C47}"/>
   </bookViews>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>'https://www.amazon.in/gp/product/B07XVMDRZY/ref=s9_acss_bw_cg_Headers_2d1_w?pf_rd_m=A1K21FY43GMZF8&amp;pf_rd_s=merchandised-search-12&amp;pf_rd_r=16PQHT6J2KFZW359EV9D&amp;pf_rd_t=101&amp;pf_rd_p=00cb27c4-faf9-47e8-8899-c96f8fbb7ef8&amp;pf_rd_i=1389401031'</t>
+    <t>https://www.amazon.in/gp/product/B07XVMDRZY/ref=s9_acss_bw_cg_Headers_2d1_w?pf_rd_m=A1K21FY43GMZF8&amp;pf_rd_s=merchandised-search-12&amp;pf_rd_r=16PQHT6J2KFZW359EV9D&amp;pf_rd_t=101&amp;pf_rd_p=00cb27c4-faf9-47e8-8899-c96f8fbb7ef8&amp;pf_rd_i=1389401031</t>
   </si>
   <si>
-    <t>'https://www.amazon.in/dp/B012TRTE6M/ref=twister_dp_update?_encoding=UTF8&amp;psc=1'</t>
+    <t>https://www.amazon.in/dp/B012TRTE6M/ref=twister_dp_update?_encoding=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t>'https://www.amazon.in/ASUS-FX505DT-15-6-inch-Graphics-FX505DT-BQ151T/dp/B08CY2M684'</t>
+    <t>https://www.amazon.in/ASUS-FX505DT-15-6-inch-Graphics-FX505DT-BQ151T/dp/B08CY2M684</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -50,15 +56,17 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
+      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6897BB"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,19 +86,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E68E12-901D-47DD-8470-14263C931FED}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,31 +425,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>50000</v>
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1200</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="1">
         <v>51000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{422B029A-0BFE-4CEF-8E43-EC73DAE9A875}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C3A02750-B834-4FFD-871F-C398CF061101}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{2F08D430-AAB2-4862-B0BE-569D4BE6DCEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>